--- a/table/Enum.Exception.xlsx
+++ b/table/Enum.Exception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1EB447-9B4A-4D44-916E-F905610D4DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAEB9CE-E0EF-4C72-86F9-876A161BFE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultCode" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>유저 다 찼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotPlayingState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임중이 아님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -565,6 +573,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
